--- a/data/trans_orig/P14B23_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B23_2015-Edad-trans_orig.xlsx
@@ -929,7 +929,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>49,12%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>58,18%</t>
+          <t>57,88%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>50,88%</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>62,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>61,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>88,78%</t>
+          <t>89,53%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>67,64%</t>
+          <t>67,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>89,13%</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>32,79%</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,15%</t>
+          <t>79,87%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>74,88%</t>
+          <t>75,45%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>80,62%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>95,82%</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>19,38%</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>61,14%</t>
+          <t>59,53%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>66,92%</t>
+          <t>67,26%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>70,06%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>29,94%</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>61,53%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>81,23%</t>
+          <t>80,95%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>82,59%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>94,3%</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>38,47%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>18,02%</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2014,12 +2014,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>79,66%</t>
+          <t>79,79%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2035,12 +2035,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>81,46%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>89,49%</t>
         </is>
       </c>
     </row>
@@ -2064,12 +2064,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,26%</t>
         </is>
       </c>
     </row>
